--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1853.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1853.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3402487732705655</v>
+        <v>1.368870615959167</v>
       </c>
       <c r="B1">
-        <v>0.4328601243060441</v>
+        <v>2.752486944198608</v>
       </c>
       <c r="C1">
-        <v>0.6412233833368406</v>
+        <v>3.449557781219482</v>
       </c>
       <c r="D1">
-        <v>2.013510642967136</v>
+        <v>3.476047039031982</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.570347547531128</v>
       </c>
     </row>
   </sheetData>
